--- a/natmiOut/OldD7/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.64946081705008</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H2">
-        <v>2.64946081705008</v>
+        <v>1.830993</v>
       </c>
       <c r="I2">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J2">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.6032189536465</v>
+        <v>31.44605333333334</v>
       </c>
       <c r="N2">
-        <v>29.6032189536465</v>
+        <v>94.33816</v>
       </c>
       <c r="O2">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="P2">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="Q2">
-        <v>78.43256867624066</v>
+        <v>19.19250117698667</v>
       </c>
       <c r="R2">
-        <v>78.43256867624066</v>
+        <v>172.73251059288</v>
       </c>
       <c r="S2">
-        <v>0.08007829104646691</v>
+        <v>0.01655558762638799</v>
       </c>
       <c r="T2">
-        <v>0.08007829104646691</v>
+        <v>0.01655558762638799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.64946081705008</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H3">
-        <v>2.64946081705008</v>
+        <v>1.830993</v>
       </c>
       <c r="I3">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J3">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.4926296168998</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N3">
-        <v>57.4926296168998</v>
+        <v>173.401921</v>
       </c>
       <c r="O3">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974907</v>
       </c>
       <c r="P3">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974908</v>
       </c>
       <c r="Q3">
-        <v>152.324469439149</v>
+        <v>35.27752261528367</v>
       </c>
       <c r="R3">
-        <v>152.324469439149</v>
+        <v>317.497703537553</v>
       </c>
       <c r="S3">
-        <v>0.1555206389784081</v>
+        <v>0.03043064119227582</v>
       </c>
       <c r="T3">
-        <v>0.1555206389784081</v>
+        <v>0.03043064119227583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.64946081705008</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H4">
-        <v>2.64946081705008</v>
+        <v>1.830993</v>
       </c>
       <c r="I4">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J4">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.6959110653631</v>
+        <v>12.04190666666667</v>
       </c>
       <c r="N4">
-        <v>11.6959110653631</v>
+        <v>36.12572</v>
       </c>
       <c r="O4">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="P4">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="Q4">
-        <v>30.98785808738199</v>
+        <v>7.349548937773335</v>
       </c>
       <c r="R4">
-        <v>30.98785808738199</v>
+        <v>66.14594043996</v>
       </c>
       <c r="S4">
-        <v>0.03163806516488205</v>
+        <v>0.006339773035920536</v>
       </c>
       <c r="T4">
-        <v>0.03163806516488205</v>
+        <v>0.006339773035920535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.64946081705008</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H5">
-        <v>2.64946081705008</v>
+        <v>1.830993</v>
       </c>
       <c r="I5">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J5">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.8535456697054</v>
+        <v>13.81063466666667</v>
       </c>
       <c r="N5">
-        <v>10.8535456697054</v>
+        <v>41.431904</v>
       </c>
       <c r="O5">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="P5">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="Q5">
-        <v>28.75604397794802</v>
+        <v>8.429058466741333</v>
       </c>
       <c r="R5">
-        <v>28.75604397794802</v>
+        <v>75.861526200672</v>
       </c>
       <c r="S5">
-        <v>0.02935942170294728</v>
+        <v>0.007270965611371845</v>
       </c>
       <c r="T5">
-        <v>0.02935942170294728</v>
+        <v>0.007270965611371845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.14781410441597</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H6">
-        <v>1.14781410441597</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I6">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="J6">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.6032189536465</v>
+        <v>31.44605333333334</v>
       </c>
       <c r="N6">
-        <v>29.6032189536465</v>
+        <v>94.33816</v>
       </c>
       <c r="O6">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="P6">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="Q6">
-        <v>33.97899225110962</v>
+        <v>84.60209501737778</v>
       </c>
       <c r="R6">
-        <v>33.97899225110962</v>
+        <v>761.4188551564001</v>
       </c>
       <c r="S6">
-        <v>0.03469196122062311</v>
+        <v>0.07297836715079513</v>
       </c>
       <c r="T6">
-        <v>0.03469196122062311</v>
+        <v>0.07297836715079513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.14781410441597</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H7">
-        <v>1.14781410441597</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I7">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="J7">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.4926296168998</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N7">
-        <v>57.4926296168998</v>
+        <v>173.401921</v>
       </c>
       <c r="O7">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974907</v>
       </c>
       <c r="P7">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974908</v>
       </c>
       <c r="Q7">
-        <v>65.99085117424092</v>
+        <v>155.5061684119961</v>
       </c>
       <c r="R7">
-        <v>65.99085117424092</v>
+        <v>1399.555515707965</v>
       </c>
       <c r="S7">
-        <v>0.06737551346237806</v>
+        <v>0.1341407237049267</v>
       </c>
       <c r="T7">
-        <v>0.06737551346237806</v>
+        <v>0.1341407237049267</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.14781410441597</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H8">
-        <v>1.14781410441597</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I8">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="J8">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.6959110653631</v>
+        <v>12.04190666666667</v>
       </c>
       <c r="N8">
-        <v>11.6959110653631</v>
+        <v>36.12572</v>
       </c>
       <c r="O8">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="P8">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="Q8">
-        <v>13.42473168481858</v>
+        <v>32.39740520708889</v>
       </c>
       <c r="R8">
-        <v>13.42473168481858</v>
+        <v>291.5766468638</v>
       </c>
       <c r="S8">
-        <v>0.01370641799983893</v>
+        <v>0.02794623149048935</v>
       </c>
       <c r="T8">
-        <v>0.01370641799983893</v>
+        <v>0.02794623149048935</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.14781410441597</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H9">
-        <v>1.14781410441597</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I9">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="J9">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.8535456697054</v>
+        <v>13.81063466666667</v>
       </c>
       <c r="N9">
-        <v>10.8535456697054</v>
+        <v>41.431904</v>
       </c>
       <c r="O9">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="P9">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="Q9">
-        <v>12.45785280261073</v>
+        <v>37.15597038312889</v>
       </c>
       <c r="R9">
-        <v>12.45785280261073</v>
+        <v>334.40373344816</v>
       </c>
       <c r="S9">
-        <v>0.0127192514459074</v>
+        <v>0.03205100355856524</v>
       </c>
       <c r="T9">
-        <v>0.0127192514459074</v>
+        <v>0.03205100355856524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.13560715717531</v>
+        <v>1.24836</v>
       </c>
       <c r="H10">
-        <v>5.13560715717531</v>
+        <v>3.74508</v>
       </c>
       <c r="I10">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="J10">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.6032189536465</v>
+        <v>31.44605333333334</v>
       </c>
       <c r="N10">
-        <v>29.6032189536465</v>
+        <v>94.33816</v>
       </c>
       <c r="O10">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="P10">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="Q10">
-        <v>152.0305031337748</v>
+        <v>39.2559951392</v>
       </c>
       <c r="R10">
-        <v>152.0305031337748</v>
+        <v>353.3039562528</v>
       </c>
       <c r="S10">
-        <v>0.1552205044838108</v>
+        <v>0.03386249980629807</v>
       </c>
       <c r="T10">
-        <v>0.1552205044838108</v>
+        <v>0.03386249980629807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.13560715717531</v>
+        <v>1.24836</v>
       </c>
       <c r="H11">
-        <v>5.13560715717531</v>
+        <v>3.74508</v>
       </c>
       <c r="I11">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="J11">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.4926296168998</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N11">
-        <v>57.4926296168998</v>
+        <v>173.401921</v>
       </c>
       <c r="O11">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974907</v>
       </c>
       <c r="P11">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974908</v>
       </c>
       <c r="Q11">
-        <v>295.2595601453799</v>
+        <v>72.15600736651999</v>
       </c>
       <c r="R11">
-        <v>295.2595601453799</v>
+        <v>649.4040662986799</v>
       </c>
       <c r="S11">
-        <v>0.3014548852680365</v>
+        <v>0.06224228367687277</v>
       </c>
       <c r="T11">
-        <v>0.3014548852680365</v>
+        <v>0.06224228367687278</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.13560715717531</v>
+        <v>1.24836</v>
       </c>
       <c r="H12">
-        <v>5.13560715717531</v>
+        <v>3.74508</v>
       </c>
       <c r="I12">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="J12">
-        <v>0.5749104389785482</v>
+        <v>0.1239439423948662</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.6959110653631</v>
+        <v>12.04190666666667</v>
       </c>
       <c r="N12">
-        <v>11.6959110653631</v>
+        <v>36.12572</v>
       </c>
       <c r="O12">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="P12">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="Q12">
-        <v>60.06560457696465</v>
+        <v>15.0326346064</v>
       </c>
       <c r="R12">
-        <v>60.06560457696465</v>
+        <v>135.2937114576</v>
       </c>
       <c r="S12">
-        <v>0.06132593954752413</v>
+        <v>0.01296725722128117</v>
       </c>
       <c r="T12">
-        <v>0.06132593954752413</v>
+        <v>0.01296725722128117</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.24836</v>
+      </c>
+      <c r="H13">
+        <v>3.74508</v>
+      </c>
+      <c r="I13">
+        <v>0.1239439423948662</v>
+      </c>
+      <c r="J13">
+        <v>0.1239439423948662</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.81063466666667</v>
+      </c>
+      <c r="N13">
+        <v>41.431904</v>
+      </c>
+      <c r="O13">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="P13">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="Q13">
+        <v>17.24064389248</v>
+      </c>
+      <c r="R13">
+        <v>155.16579503232</v>
+      </c>
+      <c r="S13">
+        <v>0.01487190169041414</v>
+      </c>
+      <c r="T13">
+        <v>0.01487190169041414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H14">
+        <v>16.56868</v>
+      </c>
+      <c r="I14">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J14">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.44605333333334</v>
+      </c>
+      <c r="N14">
+        <v>94.33816</v>
+      </c>
+      <c r="O14">
+        <v>0.273208187120734</v>
+      </c>
+      <c r="P14">
+        <v>0.273208187120734</v>
+      </c>
+      <c r="Q14">
+        <v>173.6731983143111</v>
+      </c>
+      <c r="R14">
+        <v>1563.0587848288</v>
+      </c>
+      <c r="S14">
+        <v>0.1498117325372528</v>
+      </c>
+      <c r="T14">
+        <v>0.1498117325372528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H15">
+        <v>16.56868</v>
+      </c>
+      <c r="I15">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J15">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>57.80064033333333</v>
+      </c>
+      <c r="N15">
+        <v>173.401921</v>
+      </c>
+      <c r="O15">
+        <v>0.5021809252974907</v>
+      </c>
+      <c r="P15">
+        <v>0.5021809252974908</v>
+      </c>
+      <c r="Q15">
+        <v>319.2267711593644</v>
+      </c>
+      <c r="R15">
+        <v>2873.04094043428</v>
+      </c>
+      <c r="S15">
+        <v>0.2753672767234154</v>
+      </c>
+      <c r="T15">
+        <v>0.2753672767234154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.13560715717531</v>
-      </c>
-      <c r="H13">
-        <v>5.13560715717531</v>
-      </c>
-      <c r="I13">
-        <v>0.5749104389785482</v>
-      </c>
-      <c r="J13">
-        <v>0.5749104389785482</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>10.8535456697054</v>
-      </c>
-      <c r="N13">
-        <v>10.8535456697054</v>
-      </c>
-      <c r="O13">
-        <v>0.09898778282803142</v>
-      </c>
-      <c r="P13">
-        <v>0.09898778282803142</v>
-      </c>
-      <c r="Q13">
-        <v>55.73954682206814</v>
-      </c>
-      <c r="R13">
-        <v>55.73954682206814</v>
-      </c>
-      <c r="S13">
-        <v>0.05690910967917674</v>
-      </c>
-      <c r="T13">
-        <v>0.05690910967917674</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H16">
+        <v>16.56868</v>
+      </c>
+      <c r="I16">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J16">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.04190666666667</v>
+      </c>
+      <c r="N16">
+        <v>36.12572</v>
+      </c>
+      <c r="O16">
+        <v>0.1046219522368387</v>
+      </c>
+      <c r="P16">
+        <v>0.1046219522368387</v>
+      </c>
+      <c r="Q16">
+        <v>66.50616604995555</v>
+      </c>
+      <c r="R16">
+        <v>598.5554944496</v>
+      </c>
+      <c r="S16">
+        <v>0.0573686904891476</v>
+      </c>
+      <c r="T16">
+        <v>0.0573686904891476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H17">
+        <v>16.56868</v>
+      </c>
+      <c r="I17">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J17">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.81063466666667</v>
+      </c>
+      <c r="N17">
+        <v>41.431904</v>
+      </c>
+      <c r="O17">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="P17">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="Q17">
+        <v>76.27466212963554</v>
+      </c>
+      <c r="R17">
+        <v>686.4719591667199</v>
+      </c>
+      <c r="S17">
+        <v>0.0657950644845854</v>
+      </c>
+      <c r="T17">
+        <v>0.0657950644845854</v>
       </c>
     </row>
   </sheetData>
